--- a/Stock-analyst/vnindex_market.xlsx
+++ b/Stock-analyst/vnindex_market.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1249"/>
+  <dimension ref="A1:F1250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25429,6 +25429,26 @@
         <v>919272724</v>
       </c>
     </row>
+    <row r="1250">
+      <c r="A1250" s="2" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>1645.87</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>1665.65</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>1636.82</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>1646.01</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>684864300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Stock-analyst/vnindex_market.xlsx
+++ b/Stock-analyst/vnindex_market.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1250"/>
+  <dimension ref="A1:F1252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25449,6 +25449,46 @@
         <v>684864300</v>
       </c>
     </row>
+    <row r="1251">
+      <c r="A1251" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>1647.42</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>1689.07</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>1629.37</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>1679.18</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>832044428</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>1680.18</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>1683.95</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>1671.07</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>1683.19</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>475782147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
